--- a/src/module/autoitem/計算器.xlsx
+++ b/src/module/autoitem/計算器.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files (x86)\Steam\steamapps\common\Counter-Strike Global Offensive\game\csgo\cfg\DreamWind\modules\autoitem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files (x86)\Steam\steamapps\common\Counter-Strike Global Offensive\game\csgo\cfg\DreamWind\src\module\autoitem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50CC6CB-0B99-4575-919D-E1121BA3CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F79D9-3012-4D66-96A1-B130C20B6C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8F77A06E-CC07-4A93-AECC-28E0E1592AEB}"/>
+    <workbookView xWindow="4800" yWindow="2700" windowWidth="19200" windowHeight="10800" xr2:uid="{8F77A06E-CC07-4A93-AECC-28E0E1592AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.000000_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,10 +105,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,12 +448,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -474,10 +474,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>-15.238232</v>
+        <v>-14.962882</v>
       </c>
       <c r="B2" s="1">
-        <v>87.214637999999994</v>
+        <v>87.492607000000007</v>
       </c>
       <c r="C2" s="1">
         <v>2.52</v>
@@ -488,12 +488,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f>A2/(C2*D2)</f>
-        <v>-274.85988455988456</v>
+        <f>(A2-89)/(C2*D2)</f>
+        <v>-1875.2323593073595</v>
       </c>
       <c r="B3" s="1">
         <f>B2/(C2*D2)</f>
-        <v>1573.1356060606061</v>
+        <v>1578.1494769119772</v>
       </c>
     </row>
   </sheetData>
